--- a/Notas/Joins.xlsx
+++ b/Notas/Joins.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/SQL Basico/Notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AD36FE2-3BB3-A546-A4F8-58B4278FAC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE26C9EB-1ABB-2949-9204-797C2E35CD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{6A83FEDC-7B85-E64B-B30E-C11895CFBC54}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{6A83FEDC-7B85-E64B-B30E-C11895CFBC54}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="127">
   <si>
     <t>EMPRESAS</t>
   </si>
@@ -278,12 +278,165 @@
   <si>
     <t>Aquí viene sin ceros, ni punto, sin guiones y en mayusculas</t>
   </si>
+  <si>
+    <t>Iván</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Mateusz Aleksander</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>EmpresaId</t>
+  </si>
+  <si>
+    <t>Osuna Ayuste</t>
+  </si>
+  <si>
+    <t>ivan.osuna.ayuste@gmail.com</t>
+  </si>
+  <si>
+    <t>(null)</t>
+  </si>
+  <si>
+    <t>Novi Rod</t>
+  </si>
+  <si>
+    <t>novirod@gmail.com</t>
+  </si>
+  <si>
+    <t>Garcia Garcia</t>
+  </si>
+  <si>
+    <t>Juan.Garcia@gmail.com</t>
+  </si>
+  <si>
+    <t>Duda</t>
+  </si>
+  <si>
+    <t>mateusz.aleksander@gmail.com</t>
+  </si>
+  <si>
+    <t>Cantos Sanjuan</t>
+  </si>
+  <si>
+    <t>mcantos@gmail.com</t>
+  </si>
+  <si>
+    <t>Pérez Arribas</t>
+  </si>
+  <si>
+    <t>marta.perez.arribas@gmail.com</t>
+  </si>
+  <si>
+    <t>Codina Soler</t>
+  </si>
+  <si>
+    <t>vcs@gmail.com</t>
+  </si>
+  <si>
+    <t>Oviedo Miedo</t>
+  </si>
+  <si>
+    <t>Oviedo.Miedo@pepe.es</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>primeragl@gmail.com</t>
+  </si>
+  <si>
+    <t>Libra</t>
+  </si>
+  <si>
+    <t>Reparar.bici@gmail.com</t>
+  </si>
+  <si>
+    <t>TABLA</t>
+  </si>
+  <si>
+    <t>INDICE</t>
+  </si>
+  <si>
+    <t>CLAVE</t>
+  </si>
+  <si>
+    <t>Nombres que contengan la I</t>
+  </si>
+  <si>
+    <t>Me da igual la ordenación</t>
+  </si>
+  <si>
+    <t>Nombres que empiecen por I</t>
+  </si>
+  <si>
+    <t>La ordenación vale mucho</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>martita@matrona.es</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Cuantos numbres tengo aquí???</t>
+  </si>
+  <si>
+    <t>Cuantos datos tengo aquí?</t>
+  </si>
+  <si>
+    <t>FULL SCAN (UNO A UNO)</t>
+  </si>
+  <si>
+    <t>4 operaciones</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,8 +474,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +610,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -659,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -842,29 +1029,231 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1114,7 +1503,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{978CC6D4-37A0-4844-BB45-86B23AADC73D}" name="Tabla1" displayName="Tabla1" ref="B5:C8" totalsRowShown="0">
   <autoFilter ref="B5:C8" xr:uid="{978CC6D4-37A0-4844-BB45-86B23AADC73D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{24D66984-C698-3449-A015-849F536245B4}" name="ID" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{24D66984-C698-3449-A015-849F536245B4}" name="ID" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{5F10231D-9EE2-DA49-B41E-9A3FFAFE9398}" name="NOMBRE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1125,23 +1514,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4218C860-F0FE-7E40-BD3B-C314CB3D20B2}" name="Tabla2" displayName="Tabla2" ref="B12:D16" totalsRowShown="0">
   <autoFilter ref="B12:D16" xr:uid="{4218C860-F0FE-7E40-BD3B-C314CB3D20B2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B298DC6E-B56F-7C40-BF92-3C97C7F3555A}" name="ID" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{B298DC6E-B56F-7C40-BF92-3C97C7F3555A}" name="ID" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{C7D9A595-F292-E74B-AA87-BE8418540BFA}" name="NOMBRE"/>
-    <tableColumn id="3" xr3:uid="{CE989DCF-DB37-064C-B73F-5EF5741307E8}" name="EMPRESAID" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{CE989DCF-DB37-064C-B73F-5EF5741307E8}" name="EMPRESAID" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FB691948-9BF9-5248-8E5F-637C3A0C7FA4}" name="Tabla3" displayName="Tabla3" ref="F16:J28" totalsRowShown="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FB691948-9BF9-5248-8E5F-637C3A0C7FA4}" name="Tabla3" displayName="Tabla3" ref="F16:J28" totalsRowShown="0" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="F16:J28" xr:uid="{FB691948-9BF9-5248-8E5F-637C3A0C7FA4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{44478D34-6A45-784F-8E1D-BEBB620C09C3}" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{6CD9539A-EEC5-2641-9133-106E70399B77}" name="NOMBRE" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{14F33DBD-E5E2-3F4E-8A39-8930F0B1FCEA}" name="ID2" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4651159A-DE41-A146-8A57-43F66F587AFC}" name="NOMBRE3" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{CFB8F39F-DA55-6444-82E2-C43A401B6F9C}" name="EMPRESAID" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{44478D34-6A45-784F-8E1D-BEBB620C09C3}" name="ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{6CD9539A-EEC5-2641-9133-106E70399B77}" name="NOMBRE" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{14F33DBD-E5E2-3F4E-8A39-8930F0B1FCEA}" name="ID2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{4651159A-DE41-A146-8A57-43F66F587AFC}" name="NOMBRE3" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{CFB8F39F-DA55-6444-82E2-C43A401B6F9C}" name="EMPRESAID" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1151,7 +1540,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3E87B752-D9F0-3941-9562-4F463E5886CA}" name="Tabla15" displayName="Tabla15" ref="C4:D7" totalsRowShown="0">
   <autoFilter ref="C4:D7" xr:uid="{3E87B752-D9F0-3941-9562-4F463E5886CA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A5714884-6C49-9C4B-AF7B-E91F82595F68}" name="ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A5714884-6C49-9C4B-AF7B-E91F82595F68}" name="ID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{F2CFB07D-47DA-8E4C-94A2-001EEDDFE029}" name="NOMBRE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1165,9 +1554,36 @@
     <sortCondition ref="H4:H8"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CB492B-3B6E-CF42-9111-2D03400222D6}" name="ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B4CB492B-3B6E-CF42-9111-2D03400222D6}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{AFE56779-A239-B04F-A87E-417BF9F79E47}" name="NOMBRE"/>
-    <tableColumn id="3" xr3:uid="{65777C81-83A6-5141-BC80-F9DC08BE0224}" name="EMPRESAID" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{65777C81-83A6-5141-BC80-F9DC08BE0224}" name="EMPRESAID" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B45CA748-C17D-AE4D-9D95-8F28934E32C3}" name="Tabla6" displayName="Tabla6" ref="I4:K15" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="I4:K15" xr:uid="{B45CA748-C17D-AE4D-9D95-8F28934E32C3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3E634D4F-2489-554F-8F00-E2D52DF0183C}" name="Nombre" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2F19015A-7E77-0448-BF98-DCE843452573}" name="Id"/>
+    <tableColumn id="3" xr3:uid="{8F907768-DC07-7D47-A1D3-C7B086C5FC02}" name="Columna1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38203D90-A844-5E49-9BE6-AC491F04F344}" name="Tabla7" displayName="Tabla7" ref="A4:F16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="8">
+  <autoFilter ref="A4:F16" xr:uid="{38203D90-A844-5E49-9BE6-AC491F04F344}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{273542CD-C9FB-3746-91B2-96D016F27302}" name="Id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C4A0D39F-AE5B-7A4D-9FD5-3FDDCCBE030B}" name="Nombre" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DE9B26BB-CB2B-1D4B-89DE-A4BB48F9B943}" name="Apellidos" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{1D361D8B-11E4-B048-A069-81E1BEA76138}" name="DNI" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{F1C80622-83B6-E84A-AC99-0D3E32F64D92}" name="Email" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{67F9ADBC-C73B-C14D-A4B6-6B65FB232CDC}" name="EmpresaId" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1568,15 +1984,15 @@
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
@@ -1588,13 +2004,13 @@
       <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
@@ -1606,13 +2022,13 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
@@ -1631,13 +2047,13 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="P14" s="83" t="s">
+      <c r="P14" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
     </row>
     <row r="15" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
@@ -1649,21 +2065,21 @@
       <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86" t="s">
+      <c r="G15" s="82"/>
+      <c r="H15" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
       <c r="M15" s="44"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
       <c r="U15" s="33"/>
       <c r="V15" s="33"/>
       <c r="W15" s="33"/>
@@ -1693,11 +2109,11 @@
       <c r="J16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
       <c r="U16" s="33"/>
       <c r="V16" s="33"/>
       <c r="W16" s="33"/>
@@ -1769,13 +2185,13 @@
       <c r="J19" s="20">
         <v>1</v>
       </c>
-      <c r="P19" s="83" t="s">
+      <c r="P19" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
     </row>
     <row r="20" spans="6:21" x14ac:dyDescent="0.2">
       <c r="F20" s="20">
@@ -1793,11 +2209,11 @@
       <c r="J20" s="21">
         <v>2</v>
       </c>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
     </row>
     <row r="21" spans="6:21" x14ac:dyDescent="0.2">
       <c r="F21" s="21">
@@ -1819,11 +2235,11 @@
       <c r="L21" s="34"/>
       <c r="M21" s="38"/>
       <c r="N21" s="43"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="83"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
     </row>
     <row r="22" spans="6:21" x14ac:dyDescent="0.2">
       <c r="F22" s="20">
@@ -1850,10 +2266,10 @@
       <c r="R22" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="S22" s="84" t="s">
+      <c r="S22" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="T22" s="84"/>
+      <c r="T22" s="86"/>
     </row>
     <row r="23" spans="6:21" x14ac:dyDescent="0.2">
       <c r="F23" s="20">
@@ -1913,13 +2329,13 @@
       <c r="J25" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="P25" s="83" t="s">
+      <c r="P25" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
     </row>
     <row r="26" spans="6:21" x14ac:dyDescent="0.2">
       <c r="F26" s="20">
@@ -1937,11 +2353,11 @@
       <c r="J26" s="21">
         <v>2</v>
       </c>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
     </row>
     <row r="27" spans="6:21" x14ac:dyDescent="0.2">
       <c r="F27" s="21">
@@ -1963,11 +2379,11 @@
       <c r="L27" s="34"/>
       <c r="M27" s="38"/>
       <c r="N27" s="43"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
     </row>
     <row r="28" spans="6:21" x14ac:dyDescent="0.2">
       <c r="F28" s="26">
@@ -1985,11 +2401,11 @@
       <c r="J28" s="30">
         <v>2</v>
       </c>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
     </row>
     <row r="29" spans="6:21" x14ac:dyDescent="0.2">
       <c r="F29" s="42"/>
@@ -2006,10 +2422,10 @@
       <c r="R29" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="S29" s="85" t="s">
+      <c r="S29" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="T29" s="85"/>
+      <c r="T29" s="87"/>
     </row>
     <row r="30" spans="6:21" x14ac:dyDescent="0.2">
       <c r="F30" s="37" t="s">
@@ -2059,48 +2475,48 @@
     </row>
     <row r="32" spans="6:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G32" s="19"/>
-      <c r="P32" s="83" t="s">
+      <c r="P32" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="83"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="G33" s="19"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="83"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="G34" s="19"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="18"/>
       <c r="G35" s="19"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="18"/>
       <c r="G36" s="19"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="83"/>
-      <c r="T36" s="83"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
@@ -2114,10 +2530,10 @@
       <c r="R37" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="S37" s="82" t="s">
+      <c r="S37" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="T37" s="82"/>
+      <c r="T37" s="85"/>
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
@@ -2218,7 +2634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9601E6DF-361D-AD45-83E2-4CE474629B8C}">
   <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+    <sheetView topLeftCell="E18" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -2276,12 +2692,12 @@
       <c r="H5" s="48">
         <v>1</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" s="48">
@@ -2299,10 +2715,10 @@
       <c r="H6" s="48">
         <v>2</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="48">
@@ -2659,4 +3075,620 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FCF78A-74B9-C547-AF1E-7F6A9260A7E6}">
+  <dimension ref="A2:N38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="XEQ23" zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
+      <selection activeCell="XFD27" sqref="XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="90" customWidth="1"/>
+    <col min="9" max="9" width="35.5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="90"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="93" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="89">
+        <v>1</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="88">
+        <v>23000</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="89">
+        <v>2</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="88">
+        <v>296666</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="89">
+        <v>7</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="89">
+        <v>3</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="88">
+        <v>2346800</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="89">
+        <v>4</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="88">
+        <v>3694485</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="89">
+        <v>2</v>
+      </c>
+      <c r="I8" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="89">
+        <v>5</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="88">
+        <v>7777777</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="89">
+        <v>1</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="89">
+        <v>6</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="88">
+        <v>5844692</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="89">
+        <v>7</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="88">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="89">
+        <v>3</v>
+      </c>
+      <c r="I11" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="88">
+        <v>6</v>
+      </c>
+      <c r="K11" s="88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="89">
+        <v>8</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="88">
+        <v>665444</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="89">
+        <v>1</v>
+      </c>
+      <c r="I12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="89">
+        <v>9</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="88">
+        <v>77771177</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="89">
+        <v>1</v>
+      </c>
+      <c r="I13" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="89">
+        <v>10</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="88">
+        <v>2300120</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="89">
+        <v>5</v>
+      </c>
+      <c r="I14" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="89">
+        <v>11</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="88">
+        <v>71620135</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="89">
+        <v>2</v>
+      </c>
+      <c r="I15" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="89">
+        <v>12</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="88">
+        <v>38472847</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="99" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="98"/>
+      <c r="B19" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="99">
+        <v>12</v>
+      </c>
+      <c r="F19" s="98"/>
+      <c r="I19" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="E22" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="95"/>
+      <c r="I22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="E23" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="96"/>
+      <c r="I23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <f>K27/L27</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N27">
+        <f>ROUNDUP(M27,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28:M38" si="0">K28/L28</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:N38" si="1">ROUNDUP(M28,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>9</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>12</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{BCB877C2-C1BE-0149-9D62-164079E4EBB8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>